--- a/story/主线剧情/main/level_st_08-03.xlsx
+++ b/story/主线剧情/main/level_st_08-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="727">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">中央区
 </t>
   </si>
@@ -1467,6 +1473,1450 @@
   </si>
   <si>
     <t xml:space="preserve">[name="盾兵"] さぁ答えろ、ロドスよ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central District
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] H—help me...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] We're Reunion too! Why are you doing this? You Sarkaz always bite whatever hand feeds you!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ...What's happening?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] The Sarkaz barricading the street are massacring Reunion...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Captain?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Need to help the casualties.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] You are, Captain?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Mmhm. I'm going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] Ngh... urgh... why, why! !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] How did Reunion get like this... how did it get like this?! Weren't we gonna unite? Weren't we gonna be... be a family of our own, each other's kin?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] See you—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Stop.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Heavy-weapons throwers, careful!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Giant, floating weapons...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Was that you, Feline? You did that? You're—a Caster?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Put your weapons down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] It's okay now. Go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] Go... go where? We've already... my teammates, my old friends, they all... they all...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Qing, help him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Qing"] Got it. Come here, brother. Those Sarkaz just don't see.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I'll say it again, Sarkaz. Put your weapons down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] You think we'll stop resisting just because you're holding a weapon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] We don't think that way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Then you want to be killed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] We don't have much of a choice.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Attacking your own comrades, hurting your own kin—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] When were the Infected ever our kin? Our kin only numbers Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You couldn't have said that when you joined Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Betraying, harming your family, playing other people's feelings...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Disgusting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Watch out for those weapons! Move!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis, stop...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Ah, Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Raidian just sent it out—the last message Dr. Kal'tsit gave us was that we should take care around the special Infected...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] They're likely a variant of the special Infected from Lungmen, and we don't know if they'll infect others in progression!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Sarkaz warriors, listen to me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] There are some... Sarkaz with a deep infection, and they're catalyzing the other Infected!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] We need the other Infected to withdraw from their current areas... Your block still has Infected survivors apart from you, and they're all non-combatants!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Even if we won't pass through here, I still hope we can all lend a hand to ensuring the safety of those Infected!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] That's impossible. They wouldn't do that. They have no conscience.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] We... we've seen it. We went out on our own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] We can't pull back. If they come this way... we'll have to get rid of them. We can't let even more Sarkaz get infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You might get infected yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Who gives a damn.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You want to end up like them too? Those monsters controlled by Arts? You don't give a damn if you do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Not the first time we've been made out to be monsters, is it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ...Oh, um... ah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] This city's toast. Sooner or later, sure, we might end up like them. But if we can exterminate them, then everything gets a little easier. Some people can still live on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] As long as Talulah isn't dead, this city will be annihilated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] If W can't kill her, there's no chance you can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] If you don't stand with the winner, you can't win; in war, if you can't win, you die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] But if you keep hurting any more Infected, then this might be where you die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] And what if I die, then? What if I turn into one of Mephisto's Herd, huh...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Mephisto's a monster, too. We kill other Infected because we're all monsters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] All we want is for the Sarkaz not to suffer any further, but when you think about it, what if we suffer?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] When you leave here and go whatever, will they look you in the eye?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Do you not know your end, being an Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Of course you know. The moment you leave that tiny little squad of yours, you'll die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] You'll be despised, wrung by the neck, lashed, whipped, and hung.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Or you'll be driven out of the cities, run vagrant, and you'll starve, bitten to death by the beasts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] You can't live on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] And you have no dignity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ...What do you know?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Warrior...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Tell me. That you're not fighting for Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] She's... strong. With her, the chance that more people live on is better.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] We don't care if we kill a few more for it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Get lost. Next time, I'll cut you in half.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Feline. If you want to pass through here, then just kill us...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] We sure don't want to see our own end up that way. That's if you can kill us, though. Hahah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You really are the most unsalvageable people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] What...? What?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] What was... that sound?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Oh, no...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] The block we're in is nearing the ones the command tower closes off its entrances with... Reunion is likely trying to raise the entire sealing layer to cover any way in!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] We're almost out of time!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Sarkaz. I'll give you one last chance. If you don't want to get mangled, pull out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] ...Heh. Hahah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I'll settle this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Cautus. Hah. What do you think you can do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Mercenary"] Black lines...? That's—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] *Pant*... *pant*. Ugh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] What's the... state of things?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] We've suppressed all consciousless Sarkaz mercenaries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] O—okay, that's good, ngh... Are there other Infected.. here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] We have news, but I can't say whether it's good or bad. Recon operators looked around a little. There are, all over this block. And most of them... are in terrible shape. They must've been passive Infected, imprisoned in concentration.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Any passage through the... sealing... layer?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Yeah, this part leads to an engineering passage. Should be able to directly enter the structural control area, hack their remote panels. They can't do a thing about that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Otherwise, for the open passages, recon ops have sighted at least four battlegrounds, all of them guerrillas against other Reunion...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] The combat situation seems intense...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] The guerrillas are strong, but the Talulah-aligned Reunion have the terrain advantage, and Sarkaz mercenaries backing them. They won't be able to push through for a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] It's okay, Amiya. Captain, us engineers will sneak our way in. We'll cut the energy supply to the whole sealing layer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Can you do it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Definitely.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] That's too risky.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Entering the core city was risky in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] No objections, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] We're going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] The, um... the, um!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Take care. Mm-hm... take care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] We're not elite operator Rosmontis's squad for nothing. Don't you worry about a thing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...Put your own safety first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] If you wanted us to listen, you wouldn't have used those Arts just now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Ah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis Squadmember"] Engineering group, move out! Hustle your bustles!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ...They're gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Oh. Amiya. You shouldn't use up your strength here. Let me handle all that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...This way, you'll be able to do less harm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Does Rhodes Island not want me to do things this way?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] That's not it. It's just... if we could, we obviously don't want things done this way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] And the only thing I've used up is strength. What you use up is... your awareness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I don't really care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] But... we should care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Qing"] Amiya! This fellow wants a few words with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...You're from Reunion, Infected friend. Can I call you that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] Whatever. Just... whatever. We're all... done for. I wanted to ask where you're gonna go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] And if... we can go with you, maybe. We've got nowhere to really go. The Sarkaz'll kill us, and we don't want to fight our own people anymore. The guerrillas'll kill us for sure, too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Why do you feel that way?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] They'd kill anyone if they wanted, wouldn't they? I've heard there's times they say they'll kill the Infected, just because someone did something or other wrong!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...I'm not sure. They might do that, but they might not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] My belief is, you have to see how they truly are to reach the facts. You can't just go on hearsay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] But we won't force you off to where they are. You're afraid of them, and the things they're doing don't sit well with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] And that's why I wanted to... to ask where you're all going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] —We're heading for the core command tower.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] ...Are you insane?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Mm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] We want to put a stop to this turmoil, so we have to head for the command tower.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Can I ask you for a favor, Infected friend?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] If it's killing—then—then no.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] It's not. I'm hoping you can all... safeguard the bystander Infected on this block.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Be careful. They might not like you... they might not like your uniforms.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] Then what do we do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I think you have two options. One is, take off that uniform, and be Reunion no longer...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] And the other is, wear your uniforms, but do what you should do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] One option is easy, and one's very hard, but I believe... this is something you should choose for yourselves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Command tower entrance
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Curs! The cowards! They're blocking off the tower entrances with the sealing layers!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Have we still not breached them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  The Sarkaz mercenaries are entrenching every sealing sector's in-roads! Other Infected have constantly been harassing us! We can't concentrate our attention!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You, repeat. You're asking us and Rhodes Island to cooperate?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] I am!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] If Rhodes Island is unworthy of your trust, then you don't need to think about any of this city's people for a second more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Even if the rules are going out of style, they'll still play by them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Even if they still owe the Captain their lives?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] If we all die here, who'll carry on Patriot's spirit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] We have strength, and Rhodes Island has knowledge. At the last, Kal'tsit's incredible on both counts. I personally think she's on par with the Captain. And you saw, even the Captain gave her his recognition!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] The sealing layer's still rising! You'd better decide, because we don't have much time left!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] That's more or less the shape of things. I've already told them about things, so, Amiya...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] I'm not asking you to agree to this. I'm just thinking it might be good for us, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] It'll lead to a little less wounded all around...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] ...I'm not really on top of things. I just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] It's alright, Guard. Your proposal is reasonable. It's just that we... we won't do things the same way the Shieldguards do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] We don't have any right to exercise over the Infected, and we won't adopt their... disciplinary methods.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Are they almost here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Should be.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] ...Amiya, I'm making less and less sense of anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] —Feline. I'm looking for your leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] If you want revenge, is now a good time?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Don't think you can try pissing me off just because you know a bit of Arts, white cat!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I don't like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Am I making you realize? The way you do things, you're no merchant's underling, eh? You're more like some Infected warrior hero, aren't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] What are you talking about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...Guerrilla fighter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] You can't threaten our employees. You don't have the authority.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] ...The Lord.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Can you command those Sarkaz?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...I can't, and I couldn't. Please don't call me that. All I am is a member of Rhodes Island. Nothing to do with race, nor any arbitrary form of power.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Then that makes things simple, if you and them have absolutely no blood affinity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You're going to team up with us here? Wreck the command tower together?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] What're you so on guard for? We're obviously the ones yielding here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] The other guerrillas still don't know what I'm up to, but I have faith you feel the same way as them. This city's people are enslaved by Talulah and her wicked plans, and you too want to liberate them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We want to revive hope for the Infected, so let's light one more flame for this city!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] if you truly fight for the Infected, then you're sure to agree.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Now answer, Rhodes Island!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중앙 구역
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 사, 살려줘……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 우리도 리유니온인데 대체 왜 이러는 거야? 너희 살카즈는 은혜를 원수로 갚는 거냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……무슨 일이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 바리케이드를 지키던 살카즈가 리유니온을 처리하고 있습니다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 팀장님?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 피해자들을 돕자.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 팀장님이 가려고요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 응, 내가 갈게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 윽…… 커헉…… 어, 어째서!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 리유니온이 어쩌다 이렇게 된 거냐? 힘을 합쳐야 한다면서? 우리는…… 가족이라면서? 그렇게 말해놓고 이런 짓을 해?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 잘 가라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 멈춰.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 중형 무기 투척수다, 조심해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 공중에 거대한 무기가 떠 있어……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 너냐, 필라인? 네가 한 짓이냐? 캐스터인가보군?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 무기 내려놔.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 괜찮아, 어서 가.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 어, 어디를 가라는 거냐? 우린 이미 친구도, 터전도, 그들 모두…… 모두 다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 칭, 도와줘.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="칭"] 오케이. 이리 와, 형씨! 살카즈들은 눈치란 게 없다니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 다시 한번 말할게, 살카즈. 무기 내려놔.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 네 손에 무기가 들렸다고 해서 우리가 포기할 것 같으냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 어림없는 소리.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그럼 죽고 싶다는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 선택의 여지가 없군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 동료를 공격하고 해치기까지 하다니……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 언제부터 감염자가 우리의 동료였지? 우리의 동료는 살카즈 뿐이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 리유니온에 가입할 땐 그렇게 말하지 않았겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 가족을 배신하고 해치는 것도 모자라, 다른 사람의 감정까지 속이다니……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 나빴어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 무기를 조심해! 피해, 어서!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 로즈몬티스 씨, 멈추세요……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아, 아미야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 라이디언 씨가 방금 통신을 보내왔어요. 특수 감염자를 조심하라는 마지막 메시지를 켈시 선생님이 보내셨다면서요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그들은 어쩌면 용문의 특수 감염자들이 변이를 일으킨 존재일지도 몰라요. 그들이 다른 사람에게 2차 전파시킬지도 모른다고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 살카즈 전사 여러분, 제 말을 들어주세요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 일부…… 극도로 감염된 살카즈가 다른 감염자를 자극하고 있어요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 다른 감염자들을 소재한 구역에서 반드시 철수시켜야 해요…… 이곳에도 생존자들이 있어요, 그들은 전투 인원이 아니에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 우리가 이곳을 통과하지 못하더라도 다른 감염자들이 무사할 수 있도록 여러분께서 병력을 분산해 주셨으면 해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그건 안 돼. 양심도 없는 놈들이 그럴 리 없으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 우리가…… 우리가 봤다, 우리 스스로 걸어 나온 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 더는 물러설 수 없다. 놈들이 여기서 나타난다면…… 놈들을 해치우는 수밖에. 더 많은 살카츠인이 감염되는 걸 내버려둘 순 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 하지만 너도 감염될지 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 상관없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 너도 그렇게 되고 싶어? 아츠에 휘둘리는 괴물처럼 되어도 상관없다는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 우린 이미 괴물 취급을 받고 있다, 새삼스러울 것도 없지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아…… 하긴……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 이 도시는 가망이 없어. 우리도 언젠가는 이렇게 되겠지, 하지만 놈들을 해치우면 모든 것은 말할 것도 없고 누군가는 살아남을 수 있을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 탈룰라가 죽지 않는 한, 이 도시는 멸망할 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] W가 탈룰라를 해치우지 못한다면, 너희도 죽이지 못할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 승자의 편에 서지 않으면 이길 수 없고, 전쟁에서 패하면 죽음뿐이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 하지만 네가 또 다른 감염자를 다치게 한다면, 네 목숨도 여기서 끝일 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 죽는 게 뭐 그리 대수라고? 메피스토의 허수아비가 되면 뭐 또 어때……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 메피스토도 괴물일 뿐이다. 우리가 다른 감염자를 죽이는 건, 우리 모두가 괴물이기 때문이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 살카즈가 더는 고통 받는 걸 원치 않을 뿐이다. 하지만 고통받는다 한들 또 뭐가 어떻다는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 네가 이곳을 떠나 어디론가 간다고 해도, 그들이 과연 널 똑바로 봐 줄까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 너도 감염자야, 감염자가 자신의 말로를 모를 리 없잖아?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 네 그 하찮은 팀에서 나오는 순간부터 넌 알았을 거다, 네가 죽게 되리란 걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 사람들이 네 목을 조르고 널 향해 채찍을 내리치다가 목매달아 버릴 수도 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 아니면 도시에서 쫓겨나 떠돌아 다니다가 굶어죽어, 비스트의 먹이로 전락할지도 모르지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 넌 살아남지 못할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 그리고 감염자에게 존엄따윈 존재하지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……네가 뭘 알아?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그럼……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 말씀해 주세요, 탈룰라를 위해 싸우는 게 아니라고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 탈룰라는…… 강해. 탈룰라를 따르면 더 많은 사람이 살아남게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 몇 명 더 죽인다고 해도 성이 차진 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 꺼져, 다음에 보면 박살 내 줄 테니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 필라인, 여길 지나가려면 우리를 쓰러뜨려야 할 거다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 동료가 그렇게 되는 걸 보고 싶지는 않군. 우릴 건드릴 수 있다면 말이지, 후후.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 정말 구제불능이네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 뭐…… 뭐지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 저건…… 무슨 소리지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 큰일이에요……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 우리가 있는 구역은 사령탑에서 각 입구를 닫는 데 쓰는 봉쇄 구역에 접근했어요…… 사령탑의 리유니온은 봉쇄층 전체를 올려서 사령탑의 입구를 막아 버릴 생각인 것 같아요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 시간이 얼마 남지 않았어요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 살카즈, 마지막 기회야. 사지 멀쩡히 살고 싶으면 당장 비켜.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 하…… 푸하하하! 그럼 어디 한번 해 봐라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 제가 해결할게요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 훗…… 너 따위가 뭘 할 수 있다는 거지, 카우투스?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="살카즈 용병"] 검은 선……? 저, 저건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 하아…… 하악…… 으윽……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 상황은…… 어떤가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 의식을 잃은 살카즈 용병을 모두 진압했습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 좋아요. 그럼, 흠…… 다른 감염자는……요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 희소식인지 아닌지 모르겠습니다만 정찰 오퍼레이터가 살펴보니 지역 전체가 그런 상황이라고 합니다. 게다가…… 주로 갇혀 있던 피감염자가 대부분이라 참담하기 그지없었다더군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 봉쇄층으로 향하는…… 통로는…… 요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 작업용 통로와 연결된 곳이라 통제 구역에 들어가서 원격창을 박살 내면 놈들도 다른 수가 없을 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 다른 통로에서 정찰 오퍼레이터들이 적어도 네 곳의 전장을 발견했는데, 하나같이 유격대와 다른 리유니온뿐이었다고 합니다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 꽤나 치열한 상황인 것 같네요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 유격대는 강하지만, 탈룰라의 리유니온은 지리적으로 유리한 데다, 살카즈 용병이 그 뒤에 버티고 있어 단기간에 쓰러뜨리는 건 쉽지 않을 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 걱정하지 마십시오, 아미야. 팀장님, 엔지니어링팀이 몰래 들어가서 봉쇄층 전체의 에너지 공급을 끊어버리겠습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 가능할까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 반드시 해내겠습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그건 너무 위험해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 코어에 들어온 것 자체가 이미 충분히 위험한 걸요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 정말 괜찮겠어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 바로 출발하겠습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 자, 잠깐!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 조…… 조심해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 저흰 정예 오퍼레이터이자 로즈몬티스 팀의 일원인걸요. 안심하셔도 좋습니다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……자신의 안전을 최우선으로 생각해 주세요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 정말 그렇다면 아미야 씨도 방금 그 아츠를 쓰면 안 되는 거 아니었습니까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 앗……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스 팀원"] 엔지니어링팀. 출발한다, 서둘러!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……진짜 가버렸네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야, 지금은 체력을 아낄 때야. 여긴 내가 처리할게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……이렇게 해야 로즈몬티스 씨가 누군가를 다치게 하는 걸 조금이라도 막을 수 있으니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 내가 그러는 걸 로도스 아일랜드는 원치 않는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 아니요. 다만…… 할 수 있다면 그렇게 하고 싶진 않아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 게다가 제가 소모하는 건 체력이지만, 로즈몬티스 씨는…… 의식이잖아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 난 상관없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그렇지만…… 저흰 상관할 수밖에 없다고요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="칭"] 아미야 씨! 이 사람이 아미야 씨에게 할 말이 있다는 것 같습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 아…… 당신은……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……리유니온, 감염자 동료 씨. 이렇게 불러도 될까요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 편한 대로 불러, 편한 대로…… 우린 이미 끝났으니까. 그냥 너희가 어디로 가는지 물어보러 왔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 우리도…… 너희와 함께 가면 안 될까? 우린 갈 곳이 없어. 살카즈나 유격대나 분명 우릴 죽이려 들 거야. 우리도 동포와는 싸우고 싶지 않거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 왜 그렇게 생각하는 거죠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 놈들은 누구든 죽일 수 있지 않나? 놈들이 다른 감염자를 죽이겠다고 하는 걸 몇 번 들은 적 있지. 잘못을 저질렀다면서 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……전 잘 모르겠어요. 그럴 수도, 그렇지 않을 수도 있겠죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 소문이 아니라 그들의 진짜 행동을 봐야 사실을 알 수 있다고 생각해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그렇다고 여러분을 저들에게 내쫓진 않을 거예요. 여러분이 저들을 무서워한다면, 저들이 한 짓 역시 여러분에게는 맞지 않을 테니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 그래서 알고 싶다는 거다…… 어디로 갈 생각이지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……코어의 사령탑으로 갈 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 미친…… 단체로 미쳐버린 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 으으으……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 혼란을 막으려면 반드시 사령탑으로 가야 해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 한 가지 부탁드려도 될까요, 감염자 동료 씨?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 사람을 죽이는 거라면 사양이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그런 게 아니라…… 이 구역의 피감염자들을 지켜주실 수 있을까요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 조심하셔야 해요, 그들은 아마도…… 제복을 입은 여러분들을 증오할 테니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] 그럼 어떻게 해야 하지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 두 가지 방법이 있어요. 하나는 제복을 벗고 리유니온을 그만두는 거예요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 또 다른 하나는, 제복은 입지만 해야 할 일을 하는 거죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 하나는 간단하고, 하나는 어려워요. 어쨌든 이건…… 여러분이 결정할 일이라고 생각해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사령탑 입구
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 제길! 놈들이 겁을 집어먹고 사령탑 입구를 막은 채 봉쇄층을 가동하려 하고 있어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 아직도 못 뚫었나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="환영 석궁병"]  살카즈 용병들이 전체 봉쇄구역의 입구를 지키고 있는 데다, 다른 감염자들의 방해로 전력을 집중할 수 없어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 다시 말해봐, 나더러 로도스 아일랜드와 손을 잡으라고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 그래!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 로도스 아일랜드도 못 믿겠다면, 이 도시에 믿을 놈들은 아무도 없을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 아무리 고리타분한 규칙이라도 지키는 사람들이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 녀석들이 대위님의 목숨을 앗아갔는데도?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 우리가 모두 이곳에서 죽는다면 누가 패트리어트의 정신을 계승할 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 우리에겐 힘이, 로도스 아일랜드에는 지식이 있다. 적어도 켈시는 이쪽 방면으로는 대위님과 비슷할 정도로 뛰어나지. 대위님께서 켈시를 인정하는 걸 너도 봤을 텐데!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 봉쇄층이 계속 올라가고 있다. 어서 결정해, 이제 시간이 얼마 없어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] ……대충 이런 상황입니다. 그들에겐 이미 말해놨으니 아미야 씨……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 동의를 구하는 건 아닙니다. 좀 더 나은 선택이 뭔지 궁금할 뿐이니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 모든 사람의 피해를 최소화하려면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] ……글쎄요, 다만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 괜찮아요, 가드 씨. 합리적인 제안이에요. 다만 우린…… 방패병처럼 행동하진 않을 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 우리에겐 감염자를 처리할 권한이 없고, 그런…… 징벌적 수단도 쓰지 않을 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그분들은 거의 다 왔나요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 그럴 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 아미야 씨…… 전 점점 더 혼란스럽군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] ……필라인, 난 너희들의 리더를 찾고 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 복수하려면 지금 해야 할걸?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 아츠 좀 다룰 줄 안다고 잘난 척 하지 마라, 흰 고양아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 나 너 싫어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 지금 하는 짓이 장사꾼의 부하라기 보단 감염자의 영웅에 더 가깝다는 걸 깨달았나 보지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 뭐라는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 유격대 전사 씨……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 제 사람을 위협하지 마세요. 당신에겐 그럴 권리가 없습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] ……군왕이로군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 살카즈들을 호령할 수 있나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 못 해요…… 그럴 수도 없고요. 그리고 절 그렇게 부르지 말아 주세요. 전 로도스 아일랜드의 일원일 뿐, 종족이나 어떤 형태의 힘과도 무관하니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그럼 간단하군, 그들과 아무런 혈연 관계도 없으니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 여기에 찾아온 건 우리와 같이 사령탑을 무너뜨리겠다는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 왜 그런 경계하는 표정을 짓는 거지? 이건 분명히 우리가 양보하는 거라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 다른 유격대의 전사들은 나의 행적을 모르지만 그들처럼 너도 이 도시에서 탈룰라와 그녀의 추악한 계획에 당한 사람들을 해방시켜주고 싶어 한다는 걸 알고 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 감염자들의 희망을 되찾기 위해, 우리는 이 도시를 다시 밝힐 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 진정으로 감염자를 위해 싸운다면 대답해라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 대답해라, 로도스 아일랜드여!
 </t>
   </si>
 </sst>
@@ -1825,1498 +3275,2614 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B186"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>380</v>
+      </c>
+      <c r="D18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" t="s">
+        <v>390</v>
+      </c>
+      <c r="D27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
+        <v>391</v>
+      </c>
+      <c r="D28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D35" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" t="s">
+        <v>402</v>
+      </c>
+      <c r="D39" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" t="s">
+        <v>403</v>
+      </c>
+      <c r="D40" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
+      <c r="D42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D43" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" t="s">
+        <v>408</v>
+      </c>
+      <c r="D45" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" t="s">
+        <v>409</v>
+      </c>
+      <c r="D47" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" t="s">
+        <v>410</v>
+      </c>
+      <c r="D48" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" t="s">
+        <v>411</v>
+      </c>
+      <c r="D49" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" t="s">
+        <v>412</v>
+      </c>
+      <c r="D50" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" t="s">
+        <v>413</v>
+      </c>
+      <c r="D51" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" t="s">
+        <v>414</v>
+      </c>
+      <c r="D52" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
+      <c r="D53" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" t="s">
+        <v>417</v>
+      </c>
+      <c r="D55" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" t="s">
+        <v>418</v>
+      </c>
+      <c r="D56" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>419</v>
+      </c>
+      <c r="D57" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
+        <v>420</v>
+      </c>
+      <c r="D58" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>422</v>
+      </c>
+      <c r="D60" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>242</v>
+      </c>
+      <c r="C61" t="s">
+        <v>423</v>
+      </c>
+      <c r="D61" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" t="s">
+        <v>424</v>
+      </c>
+      <c r="D62" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" t="s">
+        <v>425</v>
+      </c>
+      <c r="D63" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" t="s">
+        <v>426</v>
+      </c>
+      <c r="D64" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" t="s">
+        <v>427</v>
+      </c>
+      <c r="D65" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" t="s">
+        <v>428</v>
+      </c>
+      <c r="D66" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>248</v>
+      </c>
+      <c r="C67" t="s">
+        <v>429</v>
+      </c>
+      <c r="D67" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" t="s">
+        <v>430</v>
+      </c>
+      <c r="D68" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" t="s">
+        <v>431</v>
+      </c>
+      <c r="D69" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" t="s">
+        <v>432</v>
+      </c>
+      <c r="D70" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" t="s">
+        <v>433</v>
+      </c>
+      <c r="D71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>254</v>
+      </c>
+      <c r="C73" t="s">
+        <v>435</v>
+      </c>
+      <c r="D73" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" t="s">
+        <v>436</v>
+      </c>
+      <c r="D74" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" t="s">
+        <v>437</v>
+      </c>
+      <c r="D75" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" t="s">
+        <v>438</v>
+      </c>
+      <c r="D76" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" t="s">
+        <v>439</v>
+      </c>
+      <c r="D77" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>259</v>
+      </c>
+      <c r="C78" t="s">
+        <v>440</v>
+      </c>
+      <c r="D78" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>260</v>
+      </c>
+      <c r="C79" t="s">
+        <v>441</v>
+      </c>
+      <c r="D79" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" t="s">
+        <v>443</v>
+      </c>
+      <c r="D81" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" t="s">
+        <v>444</v>
+      </c>
+      <c r="D82" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C83" t="s">
+        <v>445</v>
+      </c>
+      <c r="D83" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>266</v>
+      </c>
+      <c r="C85" t="s">
+        <v>447</v>
+      </c>
+      <c r="D85" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" t="s">
+        <v>449</v>
+      </c>
+      <c r="D87" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" t="s">
+        <v>450</v>
+      </c>
+      <c r="D88" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" t="s">
+        <v>451</v>
+      </c>
+      <c r="D89" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C90" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" t="s">
+        <v>453</v>
+      </c>
+      <c r="D91" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>273</v>
+      </c>
+      <c r="C92" t="s">
+        <v>454</v>
+      </c>
+      <c r="D92" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" t="s">
+        <v>455</v>
+      </c>
+      <c r="D93" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s">
+        <v>456</v>
+      </c>
+      <c r="D94" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>276</v>
+      </c>
+      <c r="C95" t="s">
+        <v>457</v>
+      </c>
+      <c r="D95" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" t="s">
+        <v>458</v>
+      </c>
+      <c r="D96" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" t="s">
+        <v>459</v>
+      </c>
+      <c r="D97" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>279</v>
+      </c>
+      <c r="C98" t="s">
+        <v>460</v>
+      </c>
+      <c r="D98" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>280</v>
+      </c>
+      <c r="C99" t="s">
+        <v>461</v>
+      </c>
+      <c r="D99" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
+        <v>462</v>
+      </c>
+      <c r="D100" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" t="s">
+        <v>463</v>
+      </c>
+      <c r="D101" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" t="s">
+        <v>464</v>
+      </c>
+      <c r="D102" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" t="s">
+        <v>465</v>
+      </c>
+      <c r="D103" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>285</v>
+      </c>
+      <c r="C104" t="s">
+        <v>466</v>
+      </c>
+      <c r="D104" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>286</v>
+      </c>
+      <c r="C105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D105" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>287</v>
+      </c>
+      <c r="C106" t="s">
+        <v>468</v>
+      </c>
+      <c r="D106" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>288</v>
+      </c>
+      <c r="C107" t="s">
+        <v>469</v>
+      </c>
+      <c r="D107" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>289</v>
+      </c>
+      <c r="C108" t="s">
+        <v>470</v>
+      </c>
+      <c r="D108" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>290</v>
+      </c>
+      <c r="C109" t="s">
+        <v>471</v>
+      </c>
+      <c r="D109" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" t="s">
+        <v>472</v>
+      </c>
+      <c r="D110" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" t="s">
+        <v>473</v>
+      </c>
+      <c r="D111" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>293</v>
+      </c>
+      <c r="C112" t="s">
+        <v>474</v>
+      </c>
+      <c r="D112" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" t="s">
+        <v>475</v>
+      </c>
+      <c r="D113" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>295</v>
+      </c>
+      <c r="C114" t="s">
+        <v>476</v>
+      </c>
+      <c r="D114" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>296</v>
+      </c>
+      <c r="C115" t="s">
+        <v>477</v>
+      </c>
+      <c r="D115" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" t="s">
+        <v>478</v>
+      </c>
+      <c r="D116" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>298</v>
+      </c>
+      <c r="C117" t="s">
+        <v>479</v>
+      </c>
+      <c r="D117" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>299</v>
+      </c>
+      <c r="C118" t="s">
+        <v>480</v>
+      </c>
+      <c r="D118" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" t="s">
+        <v>481</v>
+      </c>
+      <c r="D119" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C120" t="s">
+        <v>482</v>
+      </c>
+      <c r="D120" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" t="s">
+        <v>483</v>
+      </c>
+      <c r="D121" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" t="s">
+        <v>484</v>
+      </c>
+      <c r="D122" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>304</v>
+      </c>
+      <c r="C123" t="s">
+        <v>485</v>
+      </c>
+      <c r="D123" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>113</v>
+      </c>
+      <c r="B124" t="s">
+        <v>305</v>
+      </c>
+      <c r="C124" t="s">
+        <v>475</v>
+      </c>
+      <c r="D124" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>306</v>
+      </c>
+      <c r="C125" t="s">
+        <v>486</v>
+      </c>
+      <c r="D125" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" t="s">
+        <v>487</v>
+      </c>
+      <c r="D126" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>308</v>
+      </c>
+      <c r="C127" t="s">
+        <v>488</v>
+      </c>
+      <c r="D127" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>309</v>
+      </c>
+      <c r="C128" t="s">
+        <v>489</v>
+      </c>
+      <c r="D128" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>310</v>
+      </c>
+      <c r="C129" t="s">
+        <v>490</v>
+      </c>
+      <c r="D129" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C130" t="s">
+        <v>491</v>
+      </c>
+      <c r="D130" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>312</v>
+      </c>
+      <c r="C131" t="s">
+        <v>492</v>
+      </c>
+      <c r="D131" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132" t="s">
+        <v>493</v>
+      </c>
+      <c r="D132" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>314</v>
+      </c>
+      <c r="C133" t="s">
+        <v>494</v>
+      </c>
+      <c r="D133" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>315</v>
+      </c>
+      <c r="C134" t="s">
+        <v>495</v>
+      </c>
+      <c r="D134" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>316</v>
+      </c>
+      <c r="C135" t="s">
+        <v>496</v>
+      </c>
+      <c r="D135" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>317</v>
+      </c>
+      <c r="C136" t="s">
+        <v>497</v>
+      </c>
+      <c r="D136" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>318</v>
+      </c>
+      <c r="C137" t="s">
+        <v>498</v>
+      </c>
+      <c r="D137" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" t="s">
+        <v>499</v>
+      </c>
+      <c r="D138" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>320</v>
+      </c>
+      <c r="C139" t="s">
+        <v>500</v>
+      </c>
+      <c r="D139" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>321</v>
+      </c>
+      <c r="C140" t="s">
+        <v>501</v>
+      </c>
+      <c r="D140" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>322</v>
+      </c>
+      <c r="C141" t="s">
+        <v>502</v>
+      </c>
+      <c r="D141" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>323</v>
+      </c>
+      <c r="C142" t="s">
+        <v>503</v>
+      </c>
+      <c r="D142" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>324</v>
+      </c>
+      <c r="C143" t="s">
+        <v>504</v>
+      </c>
+      <c r="D143" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" t="s">
+        <v>505</v>
+      </c>
+      <c r="D144" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>326</v>
+      </c>
+      <c r="C145" t="s">
+        <v>506</v>
+      </c>
+      <c r="D145" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>327</v>
+      </c>
+      <c r="C146" t="s">
+        <v>507</v>
+      </c>
+      <c r="D146" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>328</v>
+      </c>
+      <c r="C147" t="s">
+        <v>508</v>
+      </c>
+      <c r="D147" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>329</v>
+      </c>
+      <c r="C148" t="s">
+        <v>509</v>
+      </c>
+      <c r="D148" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>330</v>
+      </c>
+      <c r="C149" t="s">
+        <v>510</v>
+      </c>
+      <c r="D149" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>331</v>
+      </c>
+      <c r="C150" t="s">
+        <v>511</v>
+      </c>
+      <c r="D150" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>332</v>
+      </c>
+      <c r="C151" t="s">
+        <v>512</v>
+      </c>
+      <c r="D151" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>333</v>
+      </c>
+      <c r="C152" t="s">
+        <v>513</v>
+      </c>
+      <c r="D152" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>334</v>
+      </c>
+      <c r="C153" t="s">
+        <v>514</v>
+      </c>
+      <c r="D153" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>335</v>
+      </c>
+      <c r="C154" t="s">
+        <v>515</v>
+      </c>
+      <c r="D154" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>336</v>
+      </c>
+      <c r="C155" t="s">
+        <v>516</v>
+      </c>
+      <c r="D155" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" t="s">
+        <v>517</v>
+      </c>
+      <c r="D156" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>338</v>
+      </c>
+      <c r="C157" t="s">
+        <v>518</v>
+      </c>
+      <c r="D157" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" t="s">
+        <v>519</v>
+      </c>
+      <c r="D158" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>340</v>
+      </c>
+      <c r="C159" t="s">
+        <v>520</v>
+      </c>
+      <c r="D159" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>341</v>
+      </c>
+      <c r="C160" t="s">
+        <v>521</v>
+      </c>
+      <c r="D160" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>342</v>
+      </c>
+      <c r="C161" t="s">
+        <v>522</v>
+      </c>
+      <c r="D161" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>343</v>
+      </c>
+      <c r="C162" t="s">
+        <v>523</v>
+      </c>
+      <c r="D162" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>344</v>
+      </c>
+      <c r="C163" t="s">
+        <v>524</v>
+      </c>
+      <c r="D163" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" t="s">
+        <v>525</v>
+      </c>
+      <c r="D164" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>346</v>
+      </c>
+      <c r="C165" t="s">
+        <v>526</v>
+      </c>
+      <c r="D165" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>347</v>
+      </c>
+      <c r="C166" t="s">
+        <v>527</v>
+      </c>
+      <c r="D166" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>83</v>
+      </c>
+      <c r="B167" t="s">
+        <v>264</v>
+      </c>
+      <c r="C167" t="s">
+        <v>445</v>
+      </c>
+      <c r="D167" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" t="s">
+        <v>528</v>
+      </c>
+      <c r="D168" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>349</v>
+      </c>
+      <c r="C169" t="s">
+        <v>529</v>
+      </c>
+      <c r="D169" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>350</v>
+      </c>
+      <c r="C170" t="s">
+        <v>530</v>
+      </c>
+      <c r="D170" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" t="s">
+        <v>531</v>
+      </c>
+      <c r="D171" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>352</v>
+      </c>
+      <c r="C172" t="s">
+        <v>532</v>
+      </c>
+      <c r="D172" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>353</v>
+      </c>
+      <c r="C173" t="s">
+        <v>533</v>
+      </c>
+      <c r="D173" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>354</v>
+      </c>
+      <c r="C174" t="s">
+        <v>534</v>
+      </c>
+      <c r="D174" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>355</v>
+      </c>
+      <c r="C175" t="s">
+        <v>535</v>
+      </c>
+      <c r="D175" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>356</v>
+      </c>
+      <c r="C176" t="s">
+        <v>536</v>
+      </c>
+      <c r="D176" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" t="s">
+        <v>537</v>
+      </c>
+      <c r="D177" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+      <c r="C178" t="s">
+        <v>538</v>
+      </c>
+      <c r="D178" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>359</v>
+      </c>
+      <c r="C179" t="s">
+        <v>539</v>
+      </c>
+      <c r="D179" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>360</v>
+      </c>
+      <c r="C180" t="s">
+        <v>540</v>
+      </c>
+      <c r="D180" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>87</v>
+      </c>
+      <c r="B181" t="s">
+        <v>268</v>
+      </c>
+      <c r="C181" t="s">
+        <v>449</v>
+      </c>
+      <c r="D181" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182" t="s">
+        <v>361</v>
+      </c>
+      <c r="C182" t="s">
+        <v>541</v>
+      </c>
+      <c r="D182" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183" t="s">
+        <v>362</v>
+      </c>
+      <c r="C183" t="s">
+        <v>542</v>
+      </c>
+      <c r="D183" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" t="s">
+        <v>363</v>
+      </c>
+      <c r="C184" t="s">
+        <v>543</v>
+      </c>
+      <c r="D184" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B185" t="s">
+        <v>364</v>
+      </c>
+      <c r="C185" t="s">
+        <v>544</v>
+      </c>
+      <c r="D185" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>111</v>
-      </c>
-      <c r="B124" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>142</v>
-      </c>
-      <c r="B145" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>149</v>
-      </c>
-      <c r="B152" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>150</v>
-      </c>
-      <c r="B153" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>151</v>
-      </c>
-      <c r="B154" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>152</v>
-      </c>
-      <c r="B155" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>153</v>
-      </c>
-      <c r="B156" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>154</v>
-      </c>
-      <c r="B157" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>155</v>
-      </c>
-      <c r="B158" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>156</v>
-      </c>
-      <c r="B159" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>157</v>
-      </c>
-      <c r="B160" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>158</v>
-      </c>
-      <c r="B161" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>159</v>
-      </c>
-      <c r="B162" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>160</v>
-      </c>
-      <c r="B163" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B166" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>81</v>
-      </c>
-      <c r="B167" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>164</v>
-      </c>
-      <c r="B168" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>165</v>
-      </c>
-      <c r="B169" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>166</v>
-      </c>
-      <c r="B170" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>168</v>
-      </c>
-      <c r="B172" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>169</v>
-      </c>
-      <c r="B173" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>170</v>
-      </c>
-      <c r="B174" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>171</v>
-      </c>
-      <c r="B175" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>172</v>
-      </c>
-      <c r="B176" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>173</v>
-      </c>
-      <c r="B177" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>174</v>
-      </c>
-      <c r="B178" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>175</v>
-      </c>
-      <c r="B179" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>176</v>
-      </c>
-      <c r="B180" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>85</v>
-      </c>
-      <c r="B181" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>177</v>
-      </c>
-      <c r="B182" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>178</v>
-      </c>
-      <c r="B183" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>179</v>
-      </c>
-      <c r="B184" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>180</v>
-      </c>
-      <c r="B185" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>181</v>
-      </c>
       <c r="B186" t="s">
-        <v>363</v>
+        <v>365</v>
+      </c>
+      <c r="C186" t="s">
+        <v>545</v>
+      </c>
+      <c r="D186" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
